--- a/data/trans_orig/P36B04-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B04-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{782A951D-86D1-44C9-BFC6-7A619F04D285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7988A406-5548-41C8-96BC-E508C697929E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B3E65800-E2FD-4A15-B70B-A1DB8C713CC0}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F3EC8248-C90D-4FA2-9717-9B0B0E985843}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,9 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="697">
-  <si>
-    <t>Población según la frecuencia de consumición de legumbres en 2007 (Tasa respuesta: 99,94%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="690">
+  <si>
+    <t>Población según la frecuencia de consumo de legumbres en 2007 (Tasa respuesta: 99,94%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -94,28 +94,28 @@
     <t>6,55%</t>
   </si>
   <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
   </si>
   <si>
     <t>8,49%</t>
   </si>
   <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
   </si>
   <si>
     <t>7,51%</t>
   </si>
   <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
   </si>
   <si>
     <t>Una/dos veces a la semana</t>
@@ -124,28 +124,28 @@
     <t>66,34%</t>
   </si>
   <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
   </si>
   <si>
     <t>59,69%</t>
   </si>
   <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
   </si>
   <si>
     <t>63,06%</t>
   </si>
   <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>68,55%</t>
   </si>
   <si>
     <t>Tres o más veces a la semana</t>
@@ -154,28 +154,28 @@
     <t>27,11%</t>
   </si>
   <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
   </si>
   <si>
     <t>31,82%</t>
   </si>
   <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
   </si>
   <si>
     <t>29,44%</t>
   </si>
   <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
   </si>
   <si>
     <t>A diario</t>
@@ -190,7 +190,7 @@
     <t>0,34%</t>
   </si>
   <si>
-    <t>1,16%</t>
+    <t>1,17%</t>
   </si>
   <si>
     <t>0,61%</t>
@@ -199,1936 +199,1915 @@
     <t>0,17%</t>
   </si>
   <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
     <t>1,68%</t>
   </si>
   <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de legumbres en 2012 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>59,08%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de legumbres en 2015 (Tasa respuesta: 99,6%)</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
   </si>
   <si>
     <t>1,06%</t>
   </si>
   <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>56,38%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
   </si>
   <si>
     <t>27,83%</t>
   </si>
   <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
   </si>
   <si>
     <t>2,33%</t>
   </si>
   <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
   </si>
   <si>
     <t>8,36%</t>
   </si>
   <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>63,47%</t>
-  </si>
-  <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>61,0%</t>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
   </si>
   <si>
     <t>58,02%</t>
   </si>
   <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
   </si>
   <si>
     <t>30,66%</t>
   </si>
   <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
   </si>
   <si>
     <t>1,8%</t>
   </si>
   <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>60,89%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumición de legumbres en 2012 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>53,09%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>63,8%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>65,25%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
+    <t>1,9%</t>
   </si>
   <si>
     <t>2,95%</t>
   </si>
   <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>56,84%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumición de legumbres en 2015 (Tasa respuesta: 99,6%)</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
     <t>2,3%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
   </si>
 </sst>
 </file>
@@ -2540,7 +2519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E096CC5-C30E-4040-88B3-41C9A56A8EA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2EFEC0E-9073-4477-B259-B2EABD20FF8E}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3005,10 +2984,10 @@
         <v>54</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3023,13 +3002,13 @@
         <v>78727</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="H11" s="7">
         <v>62</v>
@@ -3038,13 +3017,13 @@
         <v>64062</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="M11" s="7">
         <v>137</v>
@@ -3053,13 +3032,13 @@
         <v>142789</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3074,13 +3053,13 @@
         <v>349197</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="H12" s="7">
         <v>350</v>
@@ -3089,13 +3068,13 @@
         <v>353317</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M12" s="7">
         <v>702</v>
@@ -3104,13 +3083,13 @@
         <v>702513</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3125,13 +3104,13 @@
         <v>143042</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H13" s="7">
         <v>145</v>
@@ -3140,13 +3119,13 @@
         <v>147048</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M13" s="7">
         <v>288</v>
@@ -3155,13 +3134,13 @@
         <v>290090</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3176,13 +3155,13 @@
         <v>4848</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -3191,13 +3170,13 @@
         <v>6704</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M14" s="7">
         <v>12</v>
@@ -3206,13 +3185,13 @@
         <v>11553</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3268,7 +3247,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3280,13 +3259,13 @@
         <v>9561</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -3298,10 +3277,10 @@
         <v>14</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
@@ -3310,10 +3289,10 @@
         <v>24002</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -3331,13 +3310,13 @@
         <v>116795</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>66</v>
@@ -3346,13 +3325,13 @@
         <v>69884</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>173</v>
@@ -3361,13 +3340,13 @@
         <v>186678</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3382,13 +3361,13 @@
         <v>583419</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H18" s="7">
         <v>621</v>
@@ -3397,13 +3376,13 @@
         <v>662045</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M18" s="7">
         <v>1166</v>
@@ -3412,13 +3391,13 @@
         <v>1245465</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3433,13 +3412,13 @@
         <v>244175</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H19" s="7">
         <v>198</v>
@@ -3448,13 +3427,13 @@
         <v>212427</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="M19" s="7">
         <v>426</v>
@@ -3463,13 +3442,13 @@
         <v>456602</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3487,10 +3466,10 @@
         <v>15</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -3499,13 +3478,13 @@
         <v>8536</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M20" s="7">
         <v>15</v>
@@ -3514,13 +3493,13 @@
         <v>16386</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3576,7 +3555,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3588,13 +3567,13 @@
         <v>8162</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -3603,13 +3582,13 @@
         <v>9894</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M22" s="7">
         <v>17</v>
@@ -3618,10 +3597,10 @@
         <v>18056</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>140</v>
@@ -3654,13 +3633,13 @@
         <v>58494</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M23" s="7">
         <v>127</v>
@@ -3669,13 +3648,13 @@
         <v>127333</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3690,13 +3669,13 @@
         <v>405618</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H24" s="7">
         <v>432</v>
@@ -3705,13 +3684,13 @@
         <v>425371</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M24" s="7">
         <v>817</v>
@@ -3720,13 +3699,13 @@
         <v>830989</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3741,13 +3720,13 @@
         <v>186322</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H25" s="7">
         <v>186</v>
@@ -3756,13 +3735,13 @@
         <v>181628</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M25" s="7">
         <v>357</v>
@@ -3771,13 +3750,13 @@
         <v>367950</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3792,13 +3771,13 @@
         <v>9568</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H26" s="7">
         <v>9</v>
@@ -3807,13 +3786,13 @@
         <v>8455</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="M26" s="7">
         <v>19</v>
@@ -3822,13 +3801,13 @@
         <v>18022</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3884,7 +3863,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3896,13 +3875,13 @@
         <v>18600</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H28" s="7">
         <v>18</v>
@@ -3911,13 +3890,13 @@
         <v>19608</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M28" s="7">
         <v>36</v>
@@ -3926,13 +3905,13 @@
         <v>38208</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3947,13 +3926,13 @@
         <v>144578</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H29" s="7">
         <v>97</v>
@@ -3962,13 +3941,13 @@
         <v>99635</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M29" s="7">
         <v>250</v>
@@ -3977,13 +3956,13 @@
         <v>244213</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3998,13 +3977,13 @@
         <v>522736</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H30" s="7">
         <v>584</v>
@@ -4013,13 +3992,13 @@
         <v>607692</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M30" s="7">
         <v>1135</v>
@@ -4028,13 +4007,13 @@
         <v>1130428</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4049,13 +4028,13 @@
         <v>231325</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>204</v>
+        <v>122</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H31" s="7">
         <v>274</v>
@@ -4064,13 +4043,13 @@
         <v>286433</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M31" s="7">
         <v>520</v>
@@ -4079,13 +4058,13 @@
         <v>517759</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4100,13 +4079,13 @@
         <v>24983</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H32" s="7">
         <v>23</v>
@@ -4115,13 +4094,13 @@
         <v>24059</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>215</v>
+        <v>134</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M32" s="7">
         <v>49</v>
@@ -4130,13 +4109,13 @@
         <v>49041</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4204,13 +4183,13 @@
         <v>38277</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>221</v>
+        <v>15</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H34" s="7">
         <v>45</v>
@@ -4219,13 +4198,13 @@
         <v>47430</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="M34" s="7">
         <v>81</v>
@@ -4234,13 +4213,13 @@
         <v>85707</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4255,13 +4234,13 @@
         <v>416492</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="H35" s="7">
         <v>295</v>
@@ -4270,13 +4249,13 @@
         <v>301649</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>105</v>
+        <v>227</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>101</v>
+        <v>229</v>
       </c>
       <c r="M35" s="7">
         <v>705</v>
@@ -4285,13 +4264,13 @@
         <v>718141</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4306,13 +4285,13 @@
         <v>1937504</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>237</v>
+        <v>28</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H36" s="7">
         <v>2064</v>
@@ -4321,13 +4300,13 @@
         <v>2115729</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="M36" s="7">
         <v>3966</v>
@@ -4336,13 +4315,13 @@
         <v>4053232</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>30</v>
+        <v>239</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4357,13 +4336,13 @@
         <v>836135</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H37" s="7">
         <v>843</v>
@@ -4372,13 +4351,13 @@
         <v>863413</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="M37" s="7">
         <v>1660</v>
@@ -4387,13 +4366,13 @@
         <v>1699549</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4408,13 +4387,13 @@
         <v>47249</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H38" s="7">
         <v>47</v>
@@ -4423,13 +4402,13 @@
         <v>47754</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>56</v>
+        <v>252</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="M38" s="7">
         <v>95</v>
@@ -4438,13 +4417,13 @@
         <v>95003</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4521,7 +4500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D765471-48B0-436F-8257-56767765B536}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E957C77-0386-4647-A70E-60AB0A1478DB}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4645,13 +4624,13 @@
         <v>740</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>258</v>
+        <v>168</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4660,7 +4639,7 @@
         <v>1213</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
@@ -4675,13 +4654,13 @@
         <v>1953</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>221</v>
+        <v>261</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4696,13 +4675,13 @@
         <v>8504</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -4711,10 +4690,10 @@
         <v>5872</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>266</v>
+        <v>13</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>267</v>
@@ -4732,7 +4711,7 @@
         <v>269</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>192</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4852,10 +4831,10 @@
         <v>288</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>223</v>
+        <v>289</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -4864,13 +4843,13 @@
         <v>5176</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>266</v>
+        <v>220</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M8" s="7">
         <v>9</v>
@@ -4879,13 +4858,13 @@
         <v>9406</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4953,13 +4932,13 @@
         <v>1766</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -4968,13 +4947,13 @@
         <v>3820</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -4983,13 +4962,13 @@
         <v>5586</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>300</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5004,13 +4983,13 @@
         <v>32123</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="H11" s="7">
         <v>36</v>
@@ -5019,13 +4998,13 @@
         <v>37544</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="M11" s="7">
         <v>68</v>
@@ -5034,13 +5013,13 @@
         <v>69666</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5055,13 +5034,13 @@
         <v>380654</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="H12" s="7">
         <v>361</v>
@@ -5070,13 +5049,13 @@
         <v>385665</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="M12" s="7">
         <v>717</v>
@@ -5085,13 +5064,13 @@
         <v>766318</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5106,13 +5085,13 @@
         <v>163139</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>160</v>
+        <v>242</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H13" s="7">
         <v>145</v>
@@ -5121,13 +5100,13 @@
         <v>151963</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="M13" s="7">
         <v>297</v>
@@ -5136,13 +5115,13 @@
         <v>315102</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5157,13 +5136,13 @@
         <v>10023</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>130</v>
+        <v>261</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -5172,13 +5151,13 @@
         <v>5049</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>221</v>
+        <v>261</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="M14" s="7">
         <v>15</v>
@@ -5187,13 +5166,13 @@
         <v>15073</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>331</v>
+        <v>136</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>293</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5249,7 +5228,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5261,13 +5240,13 @@
         <v>10881</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>332</v>
+        <v>55</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>91</v>
+        <v>329</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>333</v>
+        <v>294</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -5276,13 +5255,13 @@
         <v>12272</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>177</v>
+        <v>330</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>258</v>
+        <v>168</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="M16" s="7">
         <v>21</v>
@@ -5291,13 +5270,13 @@
         <v>23154</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>336</v>
+        <v>136</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>92</v>
+        <v>333</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5312,13 +5291,13 @@
         <v>74109</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="H17" s="7">
         <v>83</v>
@@ -5327,13 +5306,13 @@
         <v>90664</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="M17" s="7">
         <v>153</v>
@@ -5342,13 +5321,13 @@
         <v>164773</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5363,13 +5342,13 @@
         <v>627960</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>347</v>
+        <v>194</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="H18" s="7">
         <v>574</v>
@@ -5378,13 +5357,13 @@
         <v>628785</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="M18" s="7">
         <v>1154</v>
@@ -5393,13 +5372,13 @@
         <v>1256744</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5414,13 +5393,13 @@
         <v>282306</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="H19" s="7">
         <v>237</v>
@@ -5429,13 +5408,13 @@
         <v>261952</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>79</v>
+        <v>355</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="M19" s="7">
         <v>492</v>
@@ -5444,13 +5423,13 @@
         <v>544258</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>203</v>
+        <v>358</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5465,13 +5444,13 @@
         <v>18540</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>330</v>
+        <v>220</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H20" s="7">
         <v>34</v>
@@ -5480,13 +5459,13 @@
         <v>37478</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>364</v>
+        <v>258</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="M20" s="7">
         <v>51</v>
@@ -5495,13 +5474,13 @@
         <v>56018</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>368</v>
+        <v>172</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>217</v>
+        <v>365</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5557,7 +5536,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5569,13 +5548,13 @@
         <v>16757</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>370</v>
+        <v>138</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -5584,13 +5563,13 @@
         <v>15721</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="M22" s="7">
         <v>29</v>
@@ -5599,13 +5578,13 @@
         <v>32477</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>255</v>
+        <v>371</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5620,13 +5599,13 @@
         <v>93014</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H23" s="7">
         <v>86</v>
@@ -5635,13 +5614,13 @@
         <v>93470</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="M23" s="7">
         <v>170</v>
@@ -5650,13 +5629,13 @@
         <v>186484</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5671,13 +5650,13 @@
         <v>489363</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H24" s="7">
         <v>457</v>
@@ -5686,13 +5665,13 @@
         <v>507144</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="M24" s="7">
         <v>900</v>
@@ -5701,13 +5680,13 @@
         <v>996508</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5722,13 +5701,13 @@
         <v>140688</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H25" s="7">
         <v>120</v>
@@ -5737,13 +5716,13 @@
         <v>130760</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="M25" s="7">
         <v>251</v>
@@ -5752,13 +5731,13 @@
         <v>271448</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5773,13 +5752,13 @@
         <v>16848</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>171</v>
+        <v>400</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>98</v>
+        <v>221</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H26" s="7">
         <v>22</v>
@@ -5788,13 +5767,13 @@
         <v>23497</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>174</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="M26" s="7">
         <v>37</v>
@@ -5803,13 +5782,13 @@
         <v>40345</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5865,7 +5844,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5877,13 +5856,13 @@
         <v>17369</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>410</v>
+        <v>297</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H28" s="7">
         <v>27</v>
@@ -5892,13 +5871,13 @@
         <v>29817</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>413</v>
+        <v>328</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="M28" s="7">
         <v>44</v>
@@ -5907,13 +5886,13 @@
         <v>47186</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>129</v>
+        <v>411</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5928,13 +5907,13 @@
         <v>73887</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="H29" s="7">
         <v>81</v>
@@ -5943,13 +5922,13 @@
         <v>85490</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="M29" s="7">
         <v>155</v>
@@ -5958,13 +5937,13 @@
         <v>159377</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>148</v>
+        <v>419</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5979,13 +5958,13 @@
         <v>535206</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="H30" s="7">
         <v>573</v>
@@ -5994,13 +5973,13 @@
         <v>595494</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="M30" s="7">
         <v>1093</v>
@@ -6009,13 +5988,13 @@
         <v>1130700</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6027,16 +6006,16 @@
         <v>270</v>
       </c>
       <c r="D31" s="7">
-        <v>288855</v>
+        <v>288856</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="H31" s="7">
         <v>290</v>
@@ -6045,13 +6024,13 @@
         <v>306739</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="M31" s="7">
         <v>560</v>
@@ -6060,13 +6039,13 @@
         <v>595594</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6081,13 +6060,13 @@
         <v>29511</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>334</v>
+        <v>441</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H32" s="7">
         <v>28</v>
@@ -6096,13 +6075,13 @@
         <v>30185</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>446</v>
+        <v>328</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="M32" s="7">
         <v>55</v>
@@ -6111,13 +6090,13 @@
         <v>59697</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6129,7 +6108,7 @@
         <v>908</v>
       </c>
       <c r="D33" s="7">
-        <v>944828</v>
+        <v>944829</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>47</v>
@@ -6185,13 +6164,13 @@
         <v>47513</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>332</v>
+        <v>449</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>452</v>
+        <v>405</v>
       </c>
       <c r="H34" s="7">
         <v>56</v>
@@ -6200,13 +6179,13 @@
         <v>62843</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>454</v>
+        <v>289</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="M34" s="7">
         <v>101</v>
@@ -6215,13 +6194,13 @@
         <v>110356</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>457</v>
+        <v>328</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6236,13 +6215,13 @@
         <v>281636</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>460</v>
+        <v>336</v>
       </c>
       <c r="H35" s="7">
         <v>291</v>
@@ -6251,13 +6230,13 @@
         <v>313040</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>463</v>
+        <v>374</v>
       </c>
       <c r="M35" s="7">
         <v>558</v>
@@ -6266,13 +6245,13 @@
         <v>594676</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>61</v>
+        <v>458</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>465</v>
+        <v>342</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6287,13 +6266,13 @@
         <v>2089602</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="H36" s="7">
         <v>2010</v>
@@ -6302,13 +6281,13 @@
         <v>2167609</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="M36" s="7">
         <v>3969</v>
@@ -6317,13 +6296,13 @@
         <v>4257211</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>472</v>
+        <v>236</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>474</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6338,13 +6317,13 @@
         <v>920862</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>477</v>
+        <v>76</v>
       </c>
       <c r="H37" s="7">
         <v>834</v>
@@ -6353,13 +6332,13 @@
         <v>899503</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>480</v>
+        <v>322</v>
       </c>
       <c r="M37" s="7">
         <v>1692</v>
@@ -6368,13 +6347,13 @@
         <v>1820364</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6389,13 +6368,13 @@
         <v>79153</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>215</v>
+        <v>134</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>213</v>
+        <v>85</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>484</v>
+        <v>361</v>
       </c>
       <c r="H38" s="7">
         <v>94</v>
@@ -6404,13 +6383,13 @@
         <v>101385</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="M38" s="7">
         <v>167</v>
@@ -6419,13 +6398,13 @@
         <v>180538</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>178</v>
+        <v>479</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6502,7 +6481,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA5A839-3FE4-4F38-B88B-55BCEFEE0DC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EA4203D-74B4-45B4-ACA1-C91788F9B233}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6519,7 +6498,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6626,13 +6605,13 @@
         <v>2027</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>491</v>
+        <v>333</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -6641,13 +6620,13 @@
         <v>1778</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -6656,13 +6635,13 @@
         <v>3805</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6677,13 +6656,13 @@
         <v>13490</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>190</v>
+        <v>485</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="H5" s="7">
         <v>12</v>
@@ -6692,13 +6671,13 @@
         <v>11450</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="M5" s="7">
         <v>25</v>
@@ -6707,13 +6686,13 @@
         <v>24940</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6728,13 +6707,13 @@
         <v>65810</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="H6" s="7">
         <v>68</v>
@@ -6743,13 +6722,13 @@
         <v>66856</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>470</v>
+        <v>497</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="M6" s="7">
         <v>131</v>
@@ -6758,13 +6737,13 @@
         <v>132666</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6779,13 +6758,13 @@
         <v>31279</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="H7" s="7">
         <v>30</v>
@@ -6794,13 +6773,13 @@
         <v>29824</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>274</v>
+        <v>508</v>
       </c>
       <c r="M7" s="7">
         <v>61</v>
@@ -6809,13 +6788,13 @@
         <v>61103</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6830,13 +6809,13 @@
         <v>3940</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -6845,13 +6824,13 @@
         <v>2555</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -6860,13 +6839,13 @@
         <v>6495</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>181</v>
+        <v>516</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6934,13 +6913,13 @@
         <v>4454</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>329</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -6949,13 +6928,13 @@
         <v>7548</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>132</v>
+        <v>520</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -6964,13 +6943,13 @@
         <v>12002</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>410</v>
+        <v>523</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>530</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6985,13 +6964,13 @@
         <v>60005</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>525</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="H11" s="7">
         <v>56</v>
@@ -7000,13 +6979,13 @@
         <v>54974</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>533</v>
+        <v>374</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="M11" s="7">
         <v>113</v>
@@ -7015,13 +6994,13 @@
         <v>114978</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7036,13 +7015,13 @@
         <v>304829</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>202</v>
+        <v>535</v>
       </c>
       <c r="H12" s="7">
         <v>306</v>
@@ -7051,13 +7030,13 @@
         <v>310518</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="M12" s="7">
         <v>601</v>
@@ -7066,13 +7045,13 @@
         <v>615347</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7087,13 +7066,13 @@
         <v>174164</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="H13" s="7">
         <v>171</v>
@@ -7102,13 +7081,13 @@
         <v>174821</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="M13" s="7">
         <v>340</v>
@@ -7117,13 +7096,13 @@
         <v>348985</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7138,13 +7117,13 @@
         <v>10985</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>174</v>
+        <v>551</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>556</v>
+        <v>512</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -7153,13 +7132,13 @@
         <v>8202</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="M14" s="7">
         <v>19</v>
@@ -7168,13 +7147,13 @@
         <v>19187</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>129</v>
+        <v>411</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>560</v>
+        <v>297</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>212</v>
+        <v>555</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7230,7 +7209,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7242,13 +7221,13 @@
         <v>3007</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -7257,13 +7236,13 @@
         <v>10107</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>453</v>
+        <v>558</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -7272,13 +7251,13 @@
         <v>13114</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>258</v>
+        <v>168</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>49</v>
+        <v>559</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>227</v>
+        <v>560</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7293,13 +7272,13 @@
         <v>103109</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>563</v>
+        <v>418</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>565</v>
+        <v>189</v>
       </c>
       <c r="H17" s="7">
         <v>84</v>
@@ -7308,13 +7287,13 @@
         <v>90535</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="M17" s="7">
         <v>178</v>
@@ -7323,13 +7302,13 @@
         <v>193644</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7344,13 +7323,13 @@
         <v>585974</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="H18" s="7">
         <v>556</v>
@@ -7359,13 +7338,13 @@
         <v>595479</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>66</v>
+        <v>573</v>
       </c>
       <c r="M18" s="7">
         <v>1101</v>
@@ -7374,13 +7353,13 @@
         <v>1181453</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7395,13 +7374,13 @@
         <v>313380</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="H19" s="7">
         <v>302</v>
@@ -7410,13 +7389,13 @@
         <v>320469</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="M19" s="7">
         <v>596</v>
@@ -7425,13 +7404,13 @@
         <v>633849</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7446,13 +7425,13 @@
         <v>13826</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>132</v>
+        <v>520</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>415</v>
+        <v>586</v>
       </c>
       <c r="H20" s="7">
         <v>20</v>
@@ -7461,13 +7440,13 @@
         <v>20877</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>589</v>
+        <v>294</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>98</v>
+        <v>587</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="M20" s="7">
         <v>32</v>
@@ -7476,13 +7455,13 @@
         <v>34702</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>591</v>
+        <v>255</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>87</v>
+        <v>330</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7538,7 +7517,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7550,13 +7529,13 @@
         <v>16401</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>226</v>
+        <v>591</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H22" s="7">
         <v>13</v>
@@ -7568,10 +7547,10 @@
         <v>13</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>595</v>
+        <v>91</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="M22" s="7">
         <v>28</v>
@@ -7580,13 +7559,13 @@
         <v>30591</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>333</v>
+        <v>594</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7601,10 +7580,10 @@
         <v>62227</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>564</v>
+        <v>596</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>418</v>
+        <v>597</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>598</v>
@@ -7634,10 +7613,10 @@
         <v>602</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>564</v>
+        <v>603</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7652,13 +7631,13 @@
         <v>357360</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H24" s="7">
         <v>349</v>
@@ -7667,13 +7646,13 @@
         <v>370307</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="M24" s="7">
         <v>678</v>
@@ -7682,13 +7661,13 @@
         <v>727666</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7703,13 +7682,13 @@
         <v>284635</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H25" s="7">
         <v>258</v>
@@ -7718,7 +7697,7 @@
         <v>276861</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>616</v>
+        <v>45</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>617</v>
@@ -7739,7 +7718,7 @@
         <v>620</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7754,13 +7733,13 @@
         <v>32679</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>263</v>
+        <v>588</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>622</v>
+        <v>414</v>
       </c>
       <c r="H26" s="7">
         <v>33</v>
@@ -7772,10 +7751,10 @@
         <v>623</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>261</v>
+        <v>624</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="M26" s="7">
         <v>62</v>
@@ -7784,13 +7763,13 @@
         <v>69888</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>305</v>
+        <v>626</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>625</v>
+        <v>476</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>626</v>
+        <v>482</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7846,7 +7825,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7858,13 +7837,13 @@
         <v>7971</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>627</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>628</v>
       </c>
       <c r="H28" s="7">
         <v>20</v>
@@ -7873,13 +7852,13 @@
         <v>22307</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>630</v>
+        <v>448</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="M28" s="7">
         <v>28</v>
@@ -7888,13 +7867,13 @@
         <v>30277</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>633</v>
+        <v>252</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7909,13 +7888,13 @@
         <v>102951</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>636</v>
+        <v>336</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="H29" s="7">
         <v>97</v>
@@ -7924,13 +7903,13 @@
         <v>106191</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="M29" s="7">
         <v>194</v>
@@ -7939,13 +7918,13 @@
         <v>209142</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7960,13 +7939,13 @@
         <v>549113</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="H30" s="7">
         <v>553</v>
@@ -7975,13 +7954,13 @@
         <v>597397</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="M30" s="7">
         <v>1099</v>
@@ -7990,13 +7969,13 @@
         <v>1146510</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>157</v>
+        <v>645</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8011,13 +7990,13 @@
         <v>260454</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>652</v>
+        <v>578</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="H31" s="7">
         <v>274</v>
@@ -8026,13 +8005,13 @@
         <v>300735</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="M31" s="7">
         <v>538</v>
@@ -8041,13 +8020,13 @@
         <v>561189</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8062,13 +8041,13 @@
         <v>14140</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>662</v>
+        <v>128</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="H32" s="7">
         <v>13</v>
@@ -8077,13 +8056,13 @@
         <v>14878</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="M32" s="7">
         <v>27</v>
@@ -8092,13 +8071,13 @@
         <v>29018</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>94</v>
+        <v>659</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>293</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8166,13 +8145,13 @@
         <v>33860</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>666</v>
+        <v>136</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>454</v>
+        <v>167</v>
       </c>
       <c r="H34" s="7">
         <v>52</v>
@@ -8181,13 +8160,13 @@
         <v>55929</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>87</v>
+        <v>660</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>667</v>
+        <v>331</v>
       </c>
       <c r="M34" s="7">
         <v>84</v>
@@ -8196,13 +8175,13 @@
         <v>89788</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>370</v>
+        <v>453</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>595</v>
+        <v>252</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>668</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8217,13 +8196,13 @@
         <v>341781</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>563</v>
+        <v>418</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>25</v>
+        <v>662</v>
       </c>
       <c r="H35" s="7">
         <v>332</v>
@@ -8232,13 +8211,13 @@
         <v>349596</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>672</v>
+        <v>105</v>
       </c>
       <c r="M35" s="7">
         <v>647</v>
@@ -8247,13 +8226,13 @@
         <v>691377</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>674</v>
+        <v>421</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>675</v>
+        <v>598</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8268,13 +8247,13 @@
         <v>1863085</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="H36" s="7">
         <v>1832</v>
@@ -8283,13 +8262,13 @@
         <v>1940557</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>431</v>
+        <v>671</v>
       </c>
       <c r="M36" s="7">
         <v>3610</v>
@@ -8298,13 +8277,13 @@
         <v>3803642</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8319,13 +8298,13 @@
         <v>1063912</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="H37" s="7">
         <v>1035</v>
@@ -8334,13 +8313,13 @@
         <v>1102710</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="M37" s="7">
         <v>2056</v>
@@ -8349,13 +8328,13 @@
         <v>2166622</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8370,13 +8349,13 @@
         <v>75570</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>13</v>
+        <v>685</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>694</v>
+        <v>408</v>
       </c>
       <c r="H38" s="7">
         <v>76</v>
@@ -8385,13 +8364,13 @@
         <v>83720</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>452</v>
+        <v>686</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="M38" s="7">
         <v>146</v>
@@ -8400,13 +8379,13 @@
         <v>159290</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>299</v>
+        <v>594</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>184</v>
+        <v>689</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P36B04-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B04-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7988A406-5548-41C8-96BC-E508C697929E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98142166-9506-492E-AB45-307426099737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F3EC8248-C90D-4FA2-9717-9B0B0E985843}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B1897782-FF29-46CB-BFC7-76669019E778}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="698">
   <si>
     <t>Población según la frecuencia de consumo de legumbres en 2007 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nunca o casi nunca</t>
@@ -94,28 +94,28 @@
     <t>6,55%</t>
   </si>
   <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
   </si>
   <si>
     <t>8,49%</t>
   </si>
   <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
   </si>
   <si>
     <t>7,51%</t>
   </si>
   <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
   </si>
   <si>
     <t>Una/dos veces a la semana</t>
@@ -124,28 +124,28 @@
     <t>66,34%</t>
   </si>
   <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
   </si>
   <si>
     <t>59,69%</t>
   </si>
   <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>68,17%</t>
   </si>
   <si>
     <t>63,06%</t>
   </si>
   <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
   </si>
   <si>
     <t>Tres o más veces a la semana</t>
@@ -154,1960 +154,1984 @@
     <t>27,11%</t>
   </si>
   <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
   </si>
   <si>
     <t>31,82%</t>
   </si>
   <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
   </si>
   <si>
     <t>29,44%</t>
   </si>
   <si>
-    <t>24,12%</t>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
+  </si>
+  <si>
+    <t>58,3%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de legumbres en 2012 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>59,67%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de legumbres en 2016 (Tasa respuesta: 99,6%)</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
   </si>
   <si>
     <t>35,27%</t>
   </si>
   <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
   </si>
   <si>
     <t>1,61%</t>
   </si>
   <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>61,0%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>59,68%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de legumbres en 2012 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>53,42%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
   </si>
   <si>
     <t>10,96%</t>
   </si>
   <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>59,08%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>65,25%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>60,03%</t>
-  </si>
-  <si>
-    <t>56,84%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>59,81%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de legumbres en 2015 (Tasa respuesta: 99,6%)</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>59,35%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
   </si>
   <si>
     <t>1,75%</t>
   </si>
   <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
+    <t>2,98%</t>
   </si>
   <si>
     <t>2,3%</t>
   </si>
   <si>
-    <t>2,69%</t>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
   </si>
 </sst>
 </file>
@@ -2519,7 +2543,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2EFEC0E-9073-4477-B259-B2EABD20FF8E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA8E30F2-EBF0-4435-943B-1CBD5FE1FA1C}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2987,7 +3011,7 @@
         <v>52</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3002,13 +3026,13 @@
         <v>78727</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="H11" s="7">
         <v>62</v>
@@ -3017,13 +3041,13 @@
         <v>64062</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="M11" s="7">
         <v>137</v>
@@ -3032,13 +3056,13 @@
         <v>142789</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3053,13 +3077,13 @@
         <v>349197</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="H12" s="7">
         <v>350</v>
@@ -3068,13 +3092,13 @@
         <v>353317</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M12" s="7">
         <v>702</v>
@@ -3083,13 +3107,13 @@
         <v>702513</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3104,13 +3128,13 @@
         <v>143042</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="H13" s="7">
         <v>145</v>
@@ -3119,13 +3143,13 @@
         <v>147048</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M13" s="7">
         <v>288</v>
@@ -3134,13 +3158,13 @@
         <v>290090</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3155,13 +3179,13 @@
         <v>4848</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -3170,7 +3194,7 @@
         <v>6704</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>86</v>
@@ -3191,7 +3215,7 @@
         <v>89</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3247,7 +3271,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3259,13 +3283,13 @@
         <v>9561</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -3277,10 +3301,10 @@
         <v>14</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
@@ -3289,13 +3313,13 @@
         <v>24002</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3310,13 +3334,13 @@
         <v>116795</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H17" s="7">
         <v>66</v>
@@ -3325,13 +3349,13 @@
         <v>69884</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M17" s="7">
         <v>173</v>
@@ -3340,13 +3364,13 @@
         <v>186678</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3361,13 +3385,13 @@
         <v>583419</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H18" s="7">
         <v>621</v>
@@ -3376,13 +3400,13 @@
         <v>662045</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M18" s="7">
         <v>1166</v>
@@ -3391,13 +3415,13 @@
         <v>1245465</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3412,13 +3436,13 @@
         <v>244175</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H19" s="7">
         <v>198</v>
@@ -3427,13 +3451,13 @@
         <v>212427</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M19" s="7">
         <v>426</v>
@@ -3442,13 +3466,13 @@
         <v>456602</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3466,10 +3490,10 @@
         <v>15</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -3478,13 +3502,13 @@
         <v>8536</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>15</v>
@@ -3493,13 +3517,13 @@
         <v>16386</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3555,7 +3579,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3567,13 +3591,13 @@
         <v>8162</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -3582,13 +3606,13 @@
         <v>9894</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M22" s="7">
         <v>17</v>
@@ -3597,13 +3621,13 @@
         <v>18056</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3618,13 +3642,13 @@
         <v>68840</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H23" s="7">
         <v>59</v>
@@ -3633,13 +3657,13 @@
         <v>58494</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>60</v>
+        <v>147</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="M23" s="7">
         <v>127</v>
@@ -3648,13 +3672,13 @@
         <v>127333</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3669,13 +3693,13 @@
         <v>405618</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H24" s="7">
         <v>432</v>
@@ -3684,13 +3708,13 @@
         <v>425371</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M24" s="7">
         <v>817</v>
@@ -3699,13 +3723,13 @@
         <v>830989</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3720,13 +3744,13 @@
         <v>186322</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H25" s="7">
         <v>186</v>
@@ -3735,13 +3759,13 @@
         <v>181628</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M25" s="7">
         <v>357</v>
@@ -3750,13 +3774,13 @@
         <v>367950</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3771,13 +3795,13 @@
         <v>9568</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H26" s="7">
         <v>9</v>
@@ -3786,13 +3810,13 @@
         <v>8455</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="M26" s="7">
         <v>19</v>
@@ -3801,13 +3825,13 @@
         <v>18022</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3863,7 +3887,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3875,13 +3899,13 @@
         <v>18600</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="H28" s="7">
         <v>18</v>
@@ -3890,13 +3914,13 @@
         <v>19608</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="M28" s="7">
         <v>36</v>
@@ -3905,13 +3929,13 @@
         <v>38208</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3926,13 +3950,13 @@
         <v>144578</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="H29" s="7">
         <v>97</v>
@@ -3941,13 +3965,13 @@
         <v>99635</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="M29" s="7">
         <v>250</v>
@@ -3956,13 +3980,13 @@
         <v>244213</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3977,13 +4001,13 @@
         <v>522736</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="H30" s="7">
         <v>584</v>
@@ -3992,13 +4016,13 @@
         <v>607692</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="M30" s="7">
         <v>1135</v>
@@ -4007,13 +4031,13 @@
         <v>1130428</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4028,13 +4052,13 @@
         <v>231325</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>122</v>
+        <v>207</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>202</v>
+        <v>162</v>
       </c>
       <c r="H31" s="7">
         <v>274</v>
@@ -4043,13 +4067,13 @@
         <v>286433</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="M31" s="7">
         <v>520</v>
@@ -4058,13 +4082,13 @@
         <v>517759</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,13 +4103,13 @@
         <v>24983</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="H32" s="7">
         <v>23</v>
@@ -4094,13 +4118,13 @@
         <v>24059</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>134</v>
+        <v>217</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="M32" s="7">
         <v>49</v>
@@ -4109,13 +4133,13 @@
         <v>49041</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>214</v>
+        <v>172</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>215</v>
+        <v>13</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4183,13 +4207,13 @@
         <v>38277</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="H34" s="7">
         <v>45</v>
@@ -4198,13 +4222,13 @@
         <v>47430</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>219</v>
+        <v>50</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M34" s="7">
         <v>81</v>
@@ -4213,13 +4237,13 @@
         <v>85707</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,13 +4258,13 @@
         <v>416492</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>226</v>
+        <v>60</v>
       </c>
       <c r="H35" s="7">
         <v>295</v>
@@ -4249,13 +4273,13 @@
         <v>301649</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M35" s="7">
         <v>705</v>
@@ -4264,13 +4288,13 @@
         <v>718141</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4285,13 +4309,13 @@
         <v>1937504</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>28</v>
+        <v>235</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H36" s="7">
         <v>2064</v>
@@ -4300,13 +4324,13 @@
         <v>2115729</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M36" s="7">
         <v>3966</v>
@@ -4315,13 +4339,13 @@
         <v>4053232</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4336,13 +4360,13 @@
         <v>836135</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H37" s="7">
         <v>843</v>
@@ -4351,13 +4375,13 @@
         <v>863413</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M37" s="7">
         <v>1660</v>
@@ -4366,13 +4390,13 @@
         <v>1699549</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4387,13 +4411,13 @@
         <v>47249</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>180</v>
+        <v>253</v>
       </c>
       <c r="H38" s="7">
         <v>47</v>
@@ -4402,13 +4426,13 @@
         <v>47754</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>253</v>
+        <v>99</v>
       </c>
       <c r="M38" s="7">
         <v>95</v>
@@ -4417,13 +4441,13 @@
         <v>95003</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>178</v>
+        <v>256</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4450,7 +4474,7 @@
         <v>3294</v>
       </c>
       <c r="I39" s="7">
-        <v>3375975</v>
+        <v>3375974</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>47</v>
@@ -4479,7 +4503,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -4500,7 +4524,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E957C77-0386-4647-A70E-60AB0A1478DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E74814-2235-4B8C-9F86-68B39CF47A47}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4517,7 +4541,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4624,13 +4648,13 @@
         <v>740</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>168</v>
+        <v>260</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4639,13 +4663,13 @@
         <v>1213</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4654,13 +4678,13 @@
         <v>1953</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4675,13 +4699,13 @@
         <v>8504</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -4690,13 +4714,13 @@
         <v>5872</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>13</v>
+        <v>270</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -4705,13 +4729,13 @@
         <v>14375</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>57</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4726,13 +4750,13 @@
         <v>56419</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="H6" s="7">
         <v>45</v>
@@ -4741,13 +4765,13 @@
         <v>50522</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>275</v>
+        <v>154</v>
       </c>
       <c r="M6" s="7">
         <v>105</v>
@@ -4756,13 +4780,13 @@
         <v>106941</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4777,13 +4801,13 @@
         <v>45873</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H7" s="7">
         <v>42</v>
@@ -4792,13 +4816,13 @@
         <v>48090</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="M7" s="7">
         <v>92</v>
@@ -4807,13 +4831,13 @@
         <v>93962</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4828,13 +4852,13 @@
         <v>4230</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -4843,13 +4867,13 @@
         <v>5176</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>220</v>
+        <v>295</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="M8" s="7">
         <v>9</v>
@@ -4858,13 +4882,13 @@
         <v>9406</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>294</v>
+        <v>84</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4932,13 +4956,13 @@
         <v>1766</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -4947,13 +4971,13 @@
         <v>3820</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>294</v>
+        <v>84</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -4962,13 +4986,13 @@
         <v>5586</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>178</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4983,13 +5007,13 @@
         <v>32123</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="H11" s="7">
         <v>36</v>
@@ -4998,13 +5022,13 @@
         <v>37544</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="M11" s="7">
         <v>68</v>
@@ -5013,13 +5037,13 @@
         <v>69666</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5034,13 +5058,13 @@
         <v>380654</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="H12" s="7">
         <v>361</v>
@@ -5049,13 +5073,13 @@
         <v>385665</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="M12" s="7">
         <v>717</v>
@@ -5064,13 +5088,13 @@
         <v>766318</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>70</v>
+        <v>319</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5085,13 +5109,13 @@
         <v>163139</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>242</v>
+        <v>323</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="H13" s="7">
         <v>145</v>
@@ -5100,13 +5124,13 @@
         <v>151963</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="M13" s="7">
         <v>297</v>
@@ -5115,13 +5139,13 @@
         <v>315102</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5136,13 +5160,13 @@
         <v>10023</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>261</v>
+        <v>82</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -5151,13 +5175,13 @@
         <v>5049</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>327</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="M14" s="7">
         <v>15</v>
@@ -5166,13 +5190,13 @@
         <v>15073</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>136</v>
+        <v>334</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>140</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5228,7 +5252,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5240,13 +5264,13 @@
         <v>10881</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>55</v>
+        <v>335</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>329</v>
+        <v>173</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>294</v>
+        <v>185</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -5255,13 +5279,13 @@
         <v>12272</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>330</v>
+        <v>180</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>168</v>
+        <v>336</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="M16" s="7">
         <v>21</v>
@@ -5270,13 +5294,13 @@
         <v>23154</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>136</v>
+        <v>339</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>333</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5291,13 +5315,13 @@
         <v>74109</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="H17" s="7">
         <v>83</v>
@@ -5306,13 +5330,13 @@
         <v>90664</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="M17" s="7">
         <v>153</v>
@@ -5321,13 +5345,13 @@
         <v>164773</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5342,28 +5366,28 @@
         <v>627960</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>194</v>
+        <v>349</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="H18" s="7">
         <v>574</v>
       </c>
       <c r="I18" s="7">
-        <v>628785</v>
+        <v>628784</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="M18" s="7">
         <v>1154</v>
@@ -5372,13 +5396,13 @@
         <v>1256744</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5393,28 +5417,28 @@
         <v>282306</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="H19" s="7">
         <v>237</v>
       </c>
       <c r="I19" s="7">
-        <v>261952</v>
+        <v>261951</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="M19" s="7">
         <v>492</v>
@@ -5423,13 +5447,13 @@
         <v>544258</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5444,13 +5468,13 @@
         <v>18540</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>220</v>
+        <v>295</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H20" s="7">
         <v>34</v>
@@ -5459,13 +5483,13 @@
         <v>37478</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>258</v>
+        <v>368</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="M20" s="7">
         <v>51</v>
@@ -5474,13 +5498,13 @@
         <v>56018</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>172</v>
+        <v>372</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5507,7 +5531,7 @@
         <v>939</v>
       </c>
       <c r="I21" s="7">
-        <v>1031150</v>
+        <v>1031149</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>47</v>
@@ -5536,7 +5560,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5548,13 +5572,13 @@
         <v>16757</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>138</v>
+        <v>375</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>367</v>
+        <v>291</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -5563,13 +5587,13 @@
         <v>15721</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="M22" s="7">
         <v>29</v>
@@ -5578,13 +5602,13 @@
         <v>32477</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>371</v>
+        <v>222</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5599,13 +5623,13 @@
         <v>93014</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>374</v>
+        <v>230</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="H23" s="7">
         <v>86</v>
@@ -5614,13 +5638,13 @@
         <v>93470</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="M23" s="7">
         <v>170</v>
@@ -5629,13 +5653,13 @@
         <v>186484</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5650,13 +5674,13 @@
         <v>489363</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="H24" s="7">
         <v>457</v>
@@ -5665,13 +5689,13 @@
         <v>507144</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="M24" s="7">
         <v>900</v>
@@ -5680,13 +5704,13 @@
         <v>996508</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5701,13 +5725,13 @@
         <v>140688</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="H25" s="7">
         <v>120</v>
@@ -5716,13 +5740,13 @@
         <v>130760</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="M25" s="7">
         <v>251</v>
@@ -5731,13 +5755,13 @@
         <v>271448</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>397</v>
+        <v>190</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5752,13 +5776,13 @@
         <v>16848</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>221</v>
+        <v>406</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="H26" s="7">
         <v>22</v>
@@ -5767,13 +5791,13 @@
         <v>23497</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>174</v>
+        <v>409</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="M26" s="7">
         <v>37</v>
@@ -5782,13 +5806,13 @@
         <v>40345</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>405</v>
+        <v>182</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5844,7 +5868,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5856,13 +5880,13 @@
         <v>17369</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>215</v>
+        <v>270</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>297</v>
+        <v>412</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="H28" s="7">
         <v>27</v>
@@ -5871,13 +5895,13 @@
         <v>29817</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>328</v>
+        <v>415</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="M28" s="7">
         <v>44</v>
@@ -5886,13 +5910,13 @@
         <v>47186</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>411</v>
+        <v>215</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5907,13 +5931,13 @@
         <v>73887</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="H29" s="7">
         <v>81</v>
@@ -5922,13 +5946,13 @@
         <v>85490</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>418</v>
+        <v>232</v>
       </c>
       <c r="M29" s="7">
         <v>155</v>
@@ -5937,13 +5961,13 @@
         <v>159377</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5958,13 +5982,13 @@
         <v>535206</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="H30" s="7">
         <v>573</v>
@@ -5973,13 +5997,13 @@
         <v>595494</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="M30" s="7">
         <v>1093</v>
@@ -5988,13 +6012,13 @@
         <v>1130700</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6009,13 +6033,13 @@
         <v>288856</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="H31" s="7">
         <v>290</v>
@@ -6024,13 +6048,13 @@
         <v>306739</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="M31" s="7">
         <v>560</v>
@@ -6039,13 +6063,13 @@
         <v>595594</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6060,13 +6084,13 @@
         <v>29511</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="H32" s="7">
         <v>28</v>
@@ -6075,13 +6099,13 @@
         <v>30185</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>328</v>
+        <v>179</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="M32" s="7">
         <v>55</v>
@@ -6090,13 +6114,13 @@
         <v>59697</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>446</v>
+        <v>87</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6164,13 +6188,13 @@
         <v>47513</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>448</v>
+        <v>292</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>449</v>
+        <v>225</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>405</v>
+        <v>452</v>
       </c>
       <c r="H34" s="7">
         <v>56</v>
@@ -6179,13 +6203,13 @@
         <v>62843</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>450</v>
+        <v>215</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="M34" s="7">
         <v>101</v>
@@ -6194,13 +6218,13 @@
         <v>110356</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>453</v>
+        <v>224</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6215,13 +6239,13 @@
         <v>281636</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>336</v>
+        <v>457</v>
       </c>
       <c r="H35" s="7">
         <v>291</v>
@@ -6230,13 +6254,13 @@
         <v>313040</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>374</v>
+        <v>460</v>
       </c>
       <c r="M35" s="7">
         <v>558</v>
@@ -6245,13 +6269,13 @@
         <v>594676</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>342</v>
+        <v>463</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6266,13 +6290,13 @@
         <v>2089602</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>460</v>
+        <v>238</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="H36" s="7">
         <v>2010</v>
@@ -6281,13 +6305,13 @@
         <v>2167609</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="M36" s="7">
         <v>3969</v>
@@ -6296,13 +6320,13 @@
         <v>4257211</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>236</v>
+        <v>469</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>152</v>
+        <v>471</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6317,13 +6341,13 @@
         <v>920862</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>76</v>
+        <v>474</v>
       </c>
       <c r="H37" s="7">
         <v>834</v>
@@ -6332,13 +6356,13 @@
         <v>899503</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>322</v>
+        <v>477</v>
       </c>
       <c r="M37" s="7">
         <v>1692</v>
@@ -6347,13 +6371,13 @@
         <v>1820364</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6368,13 +6392,13 @@
         <v>79153</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>134</v>
+        <v>217</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>85</v>
+        <v>270</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>361</v>
+        <v>481</v>
       </c>
       <c r="H38" s="7">
         <v>94</v>
@@ -6383,13 +6407,13 @@
         <v>101385</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>475</v>
+        <v>417</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="M38" s="7">
         <v>167</v>
@@ -6398,13 +6422,13 @@
         <v>180538</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>478</v>
+        <v>374</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6460,7 +6484,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -6481,7 +6505,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EA4203D-74B4-45B4-ACA1-C91788F9B233}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502572B8-FCA2-48F4-8BB5-87F88AE7967E}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6498,7 +6522,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6605,13 +6629,13 @@
         <v>2027</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>333</v>
+        <v>487</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -6620,13 +6644,13 @@
         <v>1778</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -6635,13 +6659,13 @@
         <v>3805</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>126</v>
+        <v>491</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6656,13 +6680,13 @@
         <v>13490</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="H5" s="7">
         <v>12</v>
@@ -6671,13 +6695,13 @@
         <v>11450</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="M5" s="7">
         <v>25</v>
@@ -6686,13 +6710,13 @@
         <v>24940</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6707,13 +6731,13 @@
         <v>65810</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="H6" s="7">
         <v>68</v>
@@ -6722,13 +6746,13 @@
         <v>66856</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="M6" s="7">
         <v>131</v>
@@ -6737,13 +6761,13 @@
         <v>132666</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6758,13 +6782,13 @@
         <v>31279</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="H7" s="7">
         <v>30</v>
@@ -6773,13 +6797,13 @@
         <v>29824</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="M7" s="7">
         <v>61</v>
@@ -6788,13 +6812,13 @@
         <v>61103</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>510</v>
+        <v>74</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6809,13 +6833,13 @@
         <v>3940</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -6824,13 +6848,13 @@
         <v>2555</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>514</v>
+        <v>453</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -6839,13 +6863,13 @@
         <v>6495</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>517</v>
+        <v>129</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6913,13 +6937,13 @@
         <v>4454</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>52</v>
+        <v>523</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -6928,13 +6952,13 @@
         <v>7548</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -6943,13 +6967,13 @@
         <v>12002</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>524</v>
+        <v>51</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>174</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6964,13 +6988,13 @@
         <v>60005</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>527</v>
+        <v>22</v>
       </c>
       <c r="H11" s="7">
         <v>56</v>
@@ -6979,13 +7003,13 @@
         <v>54974</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>374</v>
+        <v>531</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="M11" s="7">
         <v>113</v>
@@ -6994,13 +7018,13 @@
         <v>114978</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7015,13 +7039,13 @@
         <v>304829</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="H12" s="7">
         <v>306</v>
@@ -7030,13 +7054,13 @@
         <v>310518</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>538</v>
+        <v>153</v>
       </c>
       <c r="M12" s="7">
         <v>601</v>
@@ -7045,13 +7069,13 @@
         <v>615347</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7066,13 +7090,13 @@
         <v>174164</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="H13" s="7">
         <v>171</v>
@@ -7081,13 +7105,13 @@
         <v>174821</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="M13" s="7">
         <v>340</v>
@@ -7096,13 +7120,13 @@
         <v>348985</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7117,13 +7141,13 @@
         <v>10985</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>512</v>
+        <v>555</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -7132,13 +7156,13 @@
         <v>8202</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>553</v>
+        <v>139</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="M14" s="7">
         <v>19</v>
@@ -7147,13 +7171,13 @@
         <v>19187</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>411</v>
+        <v>558</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>297</v>
+        <v>559</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7209,7 +7233,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7221,13 +7245,13 @@
         <v>3007</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>125</v>
+        <v>176</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -7236,13 +7260,13 @@
         <v>10107</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>129</v>
+        <v>563</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>558</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -7251,13 +7275,13 @@
         <v>13114</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>168</v>
+        <v>260</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>559</v>
+        <v>127</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>560</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7272,13 +7296,13 @@
         <v>103109</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>418</v>
+        <v>564</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>561</v>
+        <v>530</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>189</v>
+        <v>385</v>
       </c>
       <c r="H17" s="7">
         <v>84</v>
@@ -7287,13 +7311,13 @@
         <v>90535</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="M17" s="7">
         <v>178</v>
@@ -7302,13 +7326,13 @@
         <v>193644</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>565</v>
+        <v>347</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7323,13 +7347,13 @@
         <v>585974</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H18" s="7">
         <v>556</v>
@@ -7338,13 +7362,13 @@
         <v>595479</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="M18" s="7">
         <v>1101</v>
@@ -7353,13 +7377,13 @@
         <v>1181453</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>576</v>
+        <v>429</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7374,13 +7398,13 @@
         <v>313380</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H19" s="7">
         <v>302</v>
@@ -7389,13 +7413,13 @@
         <v>320469</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="M19" s="7">
         <v>596</v>
@@ -7404,13 +7428,13 @@
         <v>633849</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7425,13 +7449,13 @@
         <v>13826</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>136</v>
+        <v>587</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="H20" s="7">
         <v>20</v>
@@ -7440,13 +7464,13 @@
         <v>20877</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>294</v>
+        <v>177</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>587</v>
+        <v>97</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>588</v>
+        <v>408</v>
       </c>
       <c r="M20" s="7">
         <v>32</v>
@@ -7455,13 +7479,13 @@
         <v>34702</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>255</v>
+        <v>589</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>330</v>
+        <v>412</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7517,7 +7541,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7529,10 +7553,10 @@
         <v>16401</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>591</v>
+        <v>375</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>592</v>
@@ -7547,10 +7571,10 @@
         <v>13</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>91</v>
+        <v>593</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="M22" s="7">
         <v>28</v>
@@ -7559,10 +7583,10 @@
         <v>30591</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>594</v>
+        <v>409</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>254</v>
+        <v>525</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>595</v>
@@ -7697,7 +7721,7 @@
         <v>276861</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>45</v>
+        <v>547</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>617</v>
@@ -7736,10 +7760,10 @@
         <v>622</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>588</v>
+        <v>332</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>414</v>
+        <v>597</v>
       </c>
       <c r="H26" s="7">
         <v>33</v>
@@ -7766,10 +7790,10 @@
         <v>626</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>476</v>
+        <v>627</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>482</v>
+        <v>628</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7825,7 +7849,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7837,13 +7861,13 @@
         <v>7971</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>133</v>
+        <v>629</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="H28" s="7">
         <v>20</v>
@@ -7852,13 +7876,13 @@
         <v>22307</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>448</v>
+        <v>632</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
       <c r="M28" s="7">
         <v>28</v>
@@ -7867,13 +7891,13 @@
         <v>30277</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>629</v>
+        <v>218</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>252</v>
+        <v>50</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>630</v>
+        <v>591</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7888,13 +7912,13 @@
         <v>102951</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>336</v>
+        <v>635</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="H29" s="7">
         <v>97</v>
@@ -7903,13 +7927,13 @@
         <v>106191</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>634</v>
+        <v>59</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>635</v>
+        <v>19</v>
       </c>
       <c r="M29" s="7">
         <v>194</v>
@@ -7918,13 +7942,13 @@
         <v>209142</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7939,13 +7963,13 @@
         <v>549113</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="H30" s="7">
         <v>553</v>
@@ -7954,13 +7978,13 @@
         <v>597397</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="M30" s="7">
         <v>1099</v>
@@ -7969,13 +7993,13 @@
         <v>1146510</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7990,13 +8014,13 @@
         <v>260454</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>578</v>
+        <v>650</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="H31" s="7">
         <v>274</v>
@@ -8005,13 +8029,13 @@
         <v>300735</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="M31" s="7">
         <v>538</v>
@@ -8020,13 +8044,13 @@
         <v>561189</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8041,13 +8065,13 @@
         <v>14140</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>371</v>
+        <v>659</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>128</v>
+        <v>264</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="H32" s="7">
         <v>13</v>
@@ -8056,13 +8080,13 @@
         <v>14878</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>410</v>
+        <v>662</v>
       </c>
       <c r="M32" s="7">
         <v>27</v>
@@ -8071,13 +8095,13 @@
         <v>29018</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>659</v>
+        <v>92</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>140</v>
+        <v>631</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8148,10 +8172,10 @@
         <v>88</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>136</v>
+        <v>587</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>167</v>
+        <v>255</v>
       </c>
       <c r="H34" s="7">
         <v>52</v>
@@ -8160,13 +8184,13 @@
         <v>55929</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="M34" s="7">
         <v>84</v>
@@ -8175,13 +8199,13 @@
         <v>89788</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>453</v>
+        <v>665</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>252</v>
+        <v>303</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>124</v>
+        <v>666</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8196,13 +8220,13 @@
         <v>341781</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>418</v>
+        <v>564</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="H35" s="7">
         <v>332</v>
@@ -8211,13 +8235,13 @@
         <v>349596</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>664</v>
+        <v>635</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>105</v>
+        <v>670</v>
       </c>
       <c r="M35" s="7">
         <v>647</v>
@@ -8226,13 +8250,13 @@
         <v>691377</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>421</v>
+        <v>672</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>598</v>
+        <v>673</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8247,13 +8271,13 @@
         <v>1863085</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>666</v>
+        <v>674</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>668</v>
+        <v>676</v>
       </c>
       <c r="H36" s="7">
         <v>1832</v>
@@ -8262,13 +8286,13 @@
         <v>1940557</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>669</v>
+        <v>677</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>671</v>
+        <v>679</v>
       </c>
       <c r="M36" s="7">
         <v>3610</v>
@@ -8277,13 +8301,13 @@
         <v>3803642</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>674</v>
+        <v>682</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8298,13 +8322,13 @@
         <v>1063912</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>676</v>
+        <v>684</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="H37" s="7">
         <v>1035</v>
@@ -8313,13 +8337,13 @@
         <v>1102710</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>678</v>
+        <v>686</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>679</v>
+        <v>687</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="M37" s="7">
         <v>2056</v>
@@ -8328,13 +8352,13 @@
         <v>2166622</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>681</v>
+        <v>689</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>683</v>
+        <v>691</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8349,13 +8373,13 @@
         <v>75570</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="H38" s="7">
         <v>76</v>
@@ -8364,13 +8388,13 @@
         <v>83720</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>686</v>
+        <v>333</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
       <c r="M38" s="7">
         <v>146</v>
@@ -8379,13 +8403,13 @@
         <v>159290</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>594</v>
+        <v>696</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>689</v>
+        <v>697</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8441,7 +8465,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B04-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B04-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98142166-9506-492E-AB45-307426099737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{45A34346-1501-4683-8700-0A190E0518DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B1897782-FF29-46CB-BFC7-76669019E778}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{743C7D41-274F-4E2F-81E0-5F58717FA790}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="697">
   <si>
     <t>Población según la frecuencia de consumo de legumbres en 2007 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -94,2044 +94,2041 @@
     <t>6,55%</t>
   </si>
   <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>56,38%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>63,47%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>58,73%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de legumbres en 2012 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>67,63%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de legumbres en 2016 (Tasa respuesta: 99,6%)</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
     <t>2,81%</t>
   </si>
   <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>66,34%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>59,69%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>68,17%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>56,87%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>62,24%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>61,0%</t>
-  </si>
-  <si>
-    <t>58,3%</t>
-  </si>
-  <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de legumbres en 2012 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>65,25%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>59,67%</t>
-  </si>
-  <si>
-    <t>56,84%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>59,68%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de legumbres en 2016 (Tasa respuesta: 99,6%)</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
+    <t>2,94%</t>
   </si>
   <si>
     <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
   </si>
 </sst>
 </file>
@@ -2543,7 +2540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA8E30F2-EBF0-4435-943B-1CBD5FE1FA1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6AEF400-E8E4-4E6E-8A2E-4616EEBE8ED1}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3008,10 +3005,10 @@
         <v>54</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3026,13 +3023,13 @@
         <v>78727</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H11" s="7">
         <v>62</v>
@@ -3041,13 +3038,13 @@
         <v>64062</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M11" s="7">
         <v>137</v>
@@ -3056,13 +3053,13 @@
         <v>142789</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3077,13 +3074,13 @@
         <v>349197</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H12" s="7">
         <v>350</v>
@@ -3092,13 +3089,13 @@
         <v>353317</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M12" s="7">
         <v>702</v>
@@ -3107,13 +3104,13 @@
         <v>702513</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3128,13 +3125,13 @@
         <v>143042</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H13" s="7">
         <v>145</v>
@@ -3143,13 +3140,13 @@
         <v>147048</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M13" s="7">
         <v>288</v>
@@ -3158,13 +3155,13 @@
         <v>290090</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3179,13 +3176,13 @@
         <v>4848</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -3194,13 +3191,13 @@
         <v>6704</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M14" s="7">
         <v>12</v>
@@ -3209,13 +3206,13 @@
         <v>11553</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3271,7 +3268,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3283,13 +3280,13 @@
         <v>9561</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -3301,10 +3298,10 @@
         <v>14</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
@@ -3313,13 +3310,13 @@
         <v>24002</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>99</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3490,10 +3487,10 @@
         <v>15</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>127</v>
+        <v>49</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -3502,13 +3499,13 @@
         <v>8536</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>15</v>
@@ -3517,13 +3514,13 @@
         <v>16386</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3579,7 +3576,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3591,13 +3588,13 @@
         <v>8162</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>86</v>
+        <v>135</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -3606,13 +3603,13 @@
         <v>9894</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M22" s="7">
         <v>17</v>
@@ -3621,13 +3618,13 @@
         <v>18056</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3642,13 +3639,13 @@
         <v>68840</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H23" s="7">
         <v>59</v>
@@ -3657,13 +3654,13 @@
         <v>58494</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M23" s="7">
         <v>127</v>
@@ -3672,13 +3669,13 @@
         <v>127333</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3693,13 +3690,13 @@
         <v>405618</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H24" s="7">
         <v>432</v>
@@ -3708,13 +3705,13 @@
         <v>425371</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M24" s="7">
         <v>817</v>
@@ -3723,13 +3720,13 @@
         <v>830989</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3744,13 +3741,13 @@
         <v>186322</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H25" s="7">
         <v>186</v>
@@ -3759,13 +3756,13 @@
         <v>181628</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M25" s="7">
         <v>357</v>
@@ -3774,13 +3771,13 @@
         <v>367950</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3795,13 +3792,13 @@
         <v>9568</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="H26" s="7">
         <v>9</v>
@@ -3810,13 +3807,13 @@
         <v>8455</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="M26" s="7">
         <v>19</v>
@@ -3825,13 +3822,13 @@
         <v>18022</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3887,7 +3884,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3899,13 +3896,13 @@
         <v>18600</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H28" s="7">
         <v>18</v>
@@ -3914,13 +3911,13 @@
         <v>19608</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M28" s="7">
         <v>36</v>
@@ -3929,13 +3926,13 @@
         <v>38208</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3950,13 +3947,13 @@
         <v>144578</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H29" s="7">
         <v>97</v>
@@ -3965,13 +3962,13 @@
         <v>99635</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M29" s="7">
         <v>250</v>
@@ -3980,13 +3977,13 @@
         <v>244213</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4001,13 +3998,13 @@
         <v>522736</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H30" s="7">
         <v>584</v>
@@ -4016,13 +4013,13 @@
         <v>607692</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M30" s="7">
         <v>1135</v>
@@ -4031,13 +4028,13 @@
         <v>1130428</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4052,13 +4049,13 @@
         <v>231325</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="H31" s="7">
         <v>274</v>
@@ -4067,13 +4064,13 @@
         <v>286433</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M31" s="7">
         <v>520</v>
@@ -4082,13 +4079,13 @@
         <v>517759</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,13 +4100,13 @@
         <v>24983</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H32" s="7">
         <v>23</v>
@@ -4118,13 +4115,13 @@
         <v>24059</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M32" s="7">
         <v>49</v>
@@ -4133,10 +4130,10 @@
         <v>49041</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>172</v>
+        <v>218</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>13</v>
+        <v>219</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>220</v>
@@ -4207,13 +4204,13 @@
         <v>38277</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>82</v>
+        <v>221</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H34" s="7">
         <v>45</v>
@@ -4222,13 +4219,13 @@
         <v>47430</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>50</v>
+        <v>224</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M34" s="7">
         <v>81</v>
@@ -4237,13 +4234,13 @@
         <v>85707</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,13 +4255,13 @@
         <v>416492</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>60</v>
+        <v>231</v>
       </c>
       <c r="H35" s="7">
         <v>295</v>
@@ -4273,13 +4270,13 @@
         <v>301649</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>229</v>
+        <v>105</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>192</v>
+        <v>232</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>230</v>
+        <v>101</v>
       </c>
       <c r="M35" s="7">
         <v>705</v>
@@ -4288,13 +4285,13 @@
         <v>718141</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4309,13 +4306,13 @@
         <v>1937504</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H36" s="7">
         <v>2064</v>
@@ -4324,13 +4321,13 @@
         <v>2115729</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M36" s="7">
         <v>3966</v>
@@ -4339,13 +4336,13 @@
         <v>4053232</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4360,13 +4357,13 @@
         <v>836135</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H37" s="7">
         <v>843</v>
@@ -4375,13 +4372,13 @@
         <v>863413</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M37" s="7">
         <v>1660</v>
@@ -4390,13 +4387,13 @@
         <v>1699549</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4411,13 +4408,13 @@
         <v>47249</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>253</v>
+        <v>182</v>
       </c>
       <c r="H38" s="7">
         <v>47</v>
@@ -4426,13 +4423,13 @@
         <v>47754</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>254</v>
+        <v>56</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>99</v>
+        <v>225</v>
       </c>
       <c r="M38" s="7">
         <v>95</v>
@@ -4444,10 +4441,10 @@
         <v>255</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>256</v>
+        <v>50</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>257</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4474,7 +4471,7 @@
         <v>3294</v>
       </c>
       <c r="I39" s="7">
-        <v>3375974</v>
+        <v>3375975</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>47</v>
@@ -4503,7 +4500,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -4524,7 +4521,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E74814-2235-4B8C-9F86-68B39CF47A47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF33AE83-9D03-428B-BED8-DAEE4F4B92DC}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4541,7 +4538,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4648,13 +4645,13 @@
         <v>740</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4663,13 +4660,13 @@
         <v>1213</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4678,13 +4675,13 @@
         <v>1953</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>264</v>
+        <v>221</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4699,13 +4696,13 @@
         <v>8504</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -4714,13 +4711,13 @@
         <v>5872</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -4729,13 +4726,13 @@
         <v>14375</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>149</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4750,13 +4747,13 @@
         <v>56419</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H6" s="7">
         <v>45</v>
@@ -4765,13 +4762,13 @@
         <v>50522</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>154</v>
+        <v>275</v>
       </c>
       <c r="M6" s="7">
         <v>105</v>
@@ -4780,13 +4777,13 @@
         <v>106941</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4801,13 +4798,13 @@
         <v>45873</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H7" s="7">
         <v>42</v>
@@ -4816,13 +4813,13 @@
         <v>48090</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="M7" s="7">
         <v>92</v>
@@ -4831,13 +4828,13 @@
         <v>93962</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4852,13 +4849,13 @@
         <v>4230</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>292</v>
+        <v>223</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -4867,13 +4864,13 @@
         <v>5176</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="M8" s="7">
         <v>9</v>
@@ -4882,13 +4879,13 @@
         <v>9406</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>84</v>
+        <v>293</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4956,13 +4953,13 @@
         <v>1766</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -4971,13 +4968,13 @@
         <v>3820</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>84</v>
+        <v>299</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -4986,13 +4983,13 @@
         <v>5586</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5007,13 +5004,13 @@
         <v>32123</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H11" s="7">
         <v>36</v>
@@ -5022,13 +5019,13 @@
         <v>37544</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="M11" s="7">
         <v>68</v>
@@ -5037,13 +5034,13 @@
         <v>69666</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5058,13 +5055,13 @@
         <v>380654</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="H12" s="7">
         <v>361</v>
@@ -5073,13 +5070,13 @@
         <v>385665</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="M12" s="7">
         <v>717</v>
@@ -5088,13 +5085,13 @@
         <v>766318</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5109,13 +5106,13 @@
         <v>163139</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>323</v>
+        <v>160</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="H13" s="7">
         <v>145</v>
@@ -5124,13 +5121,13 @@
         <v>151963</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="M13" s="7">
         <v>297</v>
@@ -5139,13 +5136,13 @@
         <v>315102</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5160,13 +5157,13 @@
         <v>10023</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -5175,13 +5172,13 @@
         <v>5049</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>264</v>
+        <v>221</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>83</v>
+        <v>329</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="M14" s="7">
         <v>15</v>
@@ -5190,13 +5187,13 @@
         <v>15073</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5252,7 +5249,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5264,13 +5261,13 @@
         <v>10881</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>173</v>
+        <v>91</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>185</v>
+        <v>333</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -5279,13 +5276,13 @@
         <v>12272</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>336</v>
+        <v>258</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="M16" s="7">
         <v>21</v>
@@ -5294,13 +5291,13 @@
         <v>23154</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5315,13 +5312,13 @@
         <v>74109</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H17" s="7">
         <v>83</v>
@@ -5330,13 +5327,13 @@
         <v>90664</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="M17" s="7">
         <v>153</v>
@@ -5345,13 +5342,13 @@
         <v>164773</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5366,28 +5363,28 @@
         <v>627960</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="H18" s="7">
         <v>574</v>
       </c>
       <c r="I18" s="7">
-        <v>628784</v>
+        <v>628785</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="M18" s="7">
         <v>1154</v>
@@ -5396,13 +5393,13 @@
         <v>1256744</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5417,28 +5414,28 @@
         <v>282306</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="H19" s="7">
         <v>237</v>
       </c>
       <c r="I19" s="7">
-        <v>261951</v>
+        <v>261952</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>361</v>
+        <v>79</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="M19" s="7">
         <v>492</v>
@@ -5447,13 +5444,13 @@
         <v>544258</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>364</v>
+        <v>203</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5468,13 +5465,13 @@
         <v>18540</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="H20" s="7">
         <v>34</v>
@@ -5483,13 +5480,13 @@
         <v>37478</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="M20" s="7">
         <v>51</v>
@@ -5498,13 +5495,13 @@
         <v>56018</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>373</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5531,7 +5528,7 @@
         <v>939</v>
       </c>
       <c r="I21" s="7">
-        <v>1031149</v>
+        <v>1031150</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>47</v>
@@ -5560,7 +5557,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5572,13 +5569,13 @@
         <v>16757</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>291</v>
+        <v>371</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -5587,13 +5584,13 @@
         <v>15721</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="M22" s="7">
         <v>29</v>
@@ -5602,13 +5599,13 @@
         <v>32477</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5623,13 +5620,13 @@
         <v>93014</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>230</v>
+        <v>378</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H23" s="7">
         <v>86</v>
@@ -5638,13 +5635,13 @@
         <v>93470</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="M23" s="7">
         <v>170</v>
@@ -5653,13 +5650,13 @@
         <v>186484</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5674,13 +5671,13 @@
         <v>489363</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="H24" s="7">
         <v>457</v>
@@ -5689,13 +5686,13 @@
         <v>507144</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="M24" s="7">
         <v>900</v>
@@ -5704,13 +5701,13 @@
         <v>996508</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5725,13 +5722,13 @@
         <v>140688</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="H25" s="7">
         <v>120</v>
@@ -5740,13 +5737,13 @@
         <v>130760</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="M25" s="7">
         <v>251</v>
@@ -5755,13 +5752,13 @@
         <v>271448</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>190</v>
+        <v>401</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5776,13 +5773,13 @@
         <v>16848</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>405</v>
+        <v>171</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>406</v>
+        <v>98</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="H26" s="7">
         <v>22</v>
@@ -5791,13 +5788,13 @@
         <v>23497</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>409</v>
+        <v>174</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="M26" s="7">
         <v>37</v>
@@ -5806,13 +5803,13 @@
         <v>40345</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>182</v>
+        <v>408</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5868,7 +5865,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5880,13 +5877,13 @@
         <v>17369</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H28" s="7">
         <v>27</v>
@@ -5895,13 +5892,13 @@
         <v>29817</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>416</v>
       </c>
       <c r="M28" s="7">
         <v>44</v>
@@ -5910,13 +5907,13 @@
         <v>47186</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>215</v>
+        <v>129</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5931,13 +5928,13 @@
         <v>73887</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="H29" s="7">
         <v>81</v>
@@ -5946,13 +5943,13 @@
         <v>85490</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M29" s="7">
         <v>155</v>
@@ -5961,13 +5958,13 @@
         <v>159377</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5982,13 +5979,13 @@
         <v>535206</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>429</v>
       </c>
       <c r="H30" s="7">
         <v>573</v>
@@ -5997,13 +5994,13 @@
         <v>595494</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>430</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>432</v>
       </c>
       <c r="M30" s="7">
         <v>1093</v>
@@ -6012,13 +6009,13 @@
         <v>1130700</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6030,16 +6027,16 @@
         <v>270</v>
       </c>
       <c r="D31" s="7">
-        <v>288856</v>
+        <v>288855</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>438</v>
       </c>
       <c r="H31" s="7">
         <v>290</v>
@@ -6048,13 +6045,13 @@
         <v>306739</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>441</v>
       </c>
       <c r="M31" s="7">
         <v>560</v>
@@ -6063,13 +6060,13 @@
         <v>595594</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6084,13 +6081,13 @@
         <v>29511</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>446</v>
+        <v>334</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="H32" s="7">
         <v>28</v>
@@ -6099,13 +6096,13 @@
         <v>30185</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>179</v>
+        <v>446</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="M32" s="7">
         <v>55</v>
@@ -6114,13 +6111,13 @@
         <v>59697</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6132,7 +6129,7 @@
         <v>908</v>
       </c>
       <c r="D33" s="7">
-        <v>944829</v>
+        <v>944828</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>47</v>
@@ -6188,10 +6185,10 @@
         <v>47513</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>292</v>
+        <v>451</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>225</v>
+        <v>332</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>452</v>
@@ -6203,13 +6200,13 @@
         <v>62843</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>215</v>
+        <v>453</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>292</v>
+        <v>454</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="M34" s="7">
         <v>101</v>
@@ -6218,13 +6215,13 @@
         <v>110356</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>224</v>
+        <v>456</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>333</v>
+        <v>457</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6239,13 +6236,13 @@
         <v>281636</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="H35" s="7">
         <v>291</v>
@@ -6254,13 +6251,13 @@
         <v>313040</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="M35" s="7">
         <v>558</v>
@@ -6269,13 +6266,13 @@
         <v>594676</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>461</v>
+        <v>61</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6290,13 +6287,13 @@
         <v>2089602</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>238</v>
+        <v>466</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="H36" s="7">
         <v>2010</v>
@@ -6305,13 +6302,13 @@
         <v>2167609</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="M36" s="7">
         <v>3969</v>
@@ -6320,13 +6317,13 @@
         <v>4257211</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6341,13 +6338,13 @@
         <v>920862</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="H37" s="7">
         <v>834</v>
@@ -6356,13 +6353,13 @@
         <v>899503</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="M37" s="7">
         <v>1692</v>
@@ -6371,13 +6368,13 @@
         <v>1820364</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6392,13 +6389,13 @@
         <v>79153</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>270</v>
+        <v>213</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="H38" s="7">
         <v>94</v>
@@ -6407,13 +6404,13 @@
         <v>101385</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>417</v>
+        <v>486</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="M38" s="7">
         <v>167</v>
@@ -6422,13 +6419,13 @@
         <v>180538</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>374</v>
+        <v>489</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>485</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6484,7 +6481,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -6505,7 +6502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502572B8-FCA2-48F4-8BB5-87F88AE7967E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1947BDB-858B-424F-964F-688AA2A3C160}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6522,7 +6519,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6629,13 +6626,13 @@
         <v>2027</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -6644,13 +6641,13 @@
         <v>1778</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -6659,13 +6656,13 @@
         <v>3805</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>491</v>
+        <v>95</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6680,13 +6677,13 @@
         <v>13490</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>493</v>
+        <v>190</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="H5" s="7">
         <v>12</v>
@@ -6695,13 +6692,13 @@
         <v>11450</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="M5" s="7">
         <v>25</v>
@@ -6710,13 +6707,13 @@
         <v>24940</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6731,13 +6728,13 @@
         <v>65810</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="H6" s="7">
         <v>68</v>
@@ -6746,13 +6743,13 @@
         <v>66856</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>505</v>
+        <v>470</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M6" s="7">
         <v>131</v>
@@ -6761,13 +6758,13 @@
         <v>132666</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6782,13 +6779,13 @@
         <v>31279</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H7" s="7">
         <v>30</v>
@@ -6797,13 +6794,13 @@
         <v>29824</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>516</v>
+        <v>274</v>
       </c>
       <c r="M7" s="7">
         <v>61</v>
@@ -6815,10 +6812,10 @@
         <v>517</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>74</v>
+        <v>518</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6833,13 +6830,13 @@
         <v>3940</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -6848,13 +6845,13 @@
         <v>2555</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>453</v>
+        <v>522</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>500</v>
+        <v>523</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -6863,13 +6860,13 @@
         <v>6495</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>521</v>
+        <v>181</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>129</v>
+        <v>524</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6937,13 +6934,13 @@
         <v>4454</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>176</v>
+        <v>99</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>523</v>
+        <v>329</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -6952,13 +6949,13 @@
         <v>7548</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>525</v>
+        <v>132</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -6967,13 +6964,13 @@
         <v>12002</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>528</v>
+        <v>410</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>51</v>
+        <v>529</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>253</v>
+        <v>530</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6988,13 +6985,13 @@
         <v>60005</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>529</v>
+        <v>58</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>22</v>
+        <v>532</v>
       </c>
       <c r="H11" s="7">
         <v>56</v>
@@ -7003,13 +7000,13 @@
         <v>54974</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="M11" s="7">
         <v>113</v>
@@ -7018,13 +7015,13 @@
         <v>114978</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7039,13 +7036,13 @@
         <v>304829</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>539</v>
+        <v>202</v>
       </c>
       <c r="H12" s="7">
         <v>306</v>
@@ -7054,13 +7051,13 @@
         <v>310518</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>153</v>
+        <v>543</v>
       </c>
       <c r="M12" s="7">
         <v>601</v>
@@ -7069,13 +7066,13 @@
         <v>615347</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7090,13 +7087,13 @@
         <v>174164</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="H13" s="7">
         <v>171</v>
@@ -7105,13 +7102,13 @@
         <v>174821</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="M13" s="7">
         <v>340</v>
@@ -7120,13 +7117,13 @@
         <v>348985</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7141,13 +7138,13 @@
         <v>10985</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>554</v>
+        <v>174</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -7156,13 +7153,13 @@
         <v>8202</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>139</v>
+        <v>558</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="M14" s="7">
         <v>19</v>
@@ -7171,13 +7168,13 @@
         <v>19187</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>558</v>
+        <v>129</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>560</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7233,7 +7230,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7245,13 +7242,13 @@
         <v>3007</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>561</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>176</v>
+        <v>15</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -7263,10 +7260,10 @@
         <v>562</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>563</v>
+        <v>88</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>453</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -7275,13 +7272,13 @@
         <v>13114</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>127</v>
+        <v>49</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7296,13 +7293,13 @@
         <v>103109</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>530</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>385</v>
+        <v>565</v>
       </c>
       <c r="H17" s="7">
         <v>84</v>
@@ -7311,13 +7308,13 @@
         <v>90535</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M17" s="7">
         <v>178</v>
@@ -7326,13 +7323,13 @@
         <v>193644</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>347</v>
+        <v>569</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7347,13 +7344,13 @@
         <v>585974</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="H18" s="7">
         <v>556</v>
@@ -7362,13 +7359,13 @@
         <v>595479</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>575</v>
+        <v>66</v>
       </c>
       <c r="M18" s="7">
         <v>1101</v>
@@ -7377,13 +7374,13 @@
         <v>1181453</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>429</v>
+        <v>579</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7398,13 +7395,13 @@
         <v>313380</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="H19" s="7">
         <v>302</v>
@@ -7413,13 +7410,13 @@
         <v>320469</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="M19" s="7">
         <v>596</v>
@@ -7428,13 +7425,13 @@
         <v>633849</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7449,13 +7446,13 @@
         <v>13826</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>525</v>
+        <v>132</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>587</v>
+        <v>137</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>588</v>
+        <v>415</v>
       </c>
       <c r="H20" s="7">
         <v>20</v>
@@ -7464,13 +7461,13 @@
         <v>20877</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>177</v>
+        <v>589</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>408</v>
+        <v>590</v>
       </c>
       <c r="M20" s="7">
         <v>32</v>
@@ -7479,13 +7476,13 @@
         <v>34702</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>412</v>
+        <v>87</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7541,7 +7538,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7553,13 +7550,13 @@
         <v>16401</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>375</v>
+        <v>226</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="H22" s="7">
         <v>13</v>
@@ -7571,10 +7568,10 @@
         <v>13</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="M22" s="7">
         <v>28</v>
@@ -7583,13 +7580,13 @@
         <v>30591</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>409</v>
+        <v>333</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>525</v>
+        <v>223</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7604,10 +7601,10 @@
         <v>62227</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>596</v>
+        <v>564</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>597</v>
+        <v>418</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>598</v>
@@ -7637,10 +7634,10 @@
         <v>602</v>
       </c>
       <c r="P23" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>603</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7655,13 +7652,13 @@
         <v>357360</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>605</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>606</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>607</v>
       </c>
       <c r="H24" s="7">
         <v>349</v>
@@ -7670,13 +7667,13 @@
         <v>370307</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>608</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>609</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>610</v>
       </c>
       <c r="M24" s="7">
         <v>678</v>
@@ -7685,13 +7682,13 @@
         <v>727666</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>611</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>612</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7706,13 +7703,13 @@
         <v>284635</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>614</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>615</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>616</v>
       </c>
       <c r="H25" s="7">
         <v>258</v>
@@ -7721,7 +7718,7 @@
         <v>276861</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>547</v>
+        <v>616</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>617</v>
@@ -7742,7 +7739,7 @@
         <v>620</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7757,13 +7754,13 @@
         <v>32679</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>622</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>597</v>
       </c>
       <c r="H26" s="7">
         <v>33</v>
@@ -7775,10 +7772,10 @@
         <v>623</v>
       </c>
       <c r="K26" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>624</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>625</v>
       </c>
       <c r="M26" s="7">
         <v>62</v>
@@ -7787,13 +7784,13 @@
         <v>69888</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>626</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>627</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7849,7 +7846,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7861,13 +7858,13 @@
         <v>7971</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="H28" s="7">
         <v>20</v>
@@ -7876,13 +7873,13 @@
         <v>22307</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>631</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>632</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>633</v>
       </c>
       <c r="M28" s="7">
         <v>28</v>
@@ -7891,13 +7888,13 @@
         <v>30277</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>218</v>
+        <v>632</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>50</v>
+        <v>633</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>591</v>
+        <v>634</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7912,13 +7909,13 @@
         <v>102951</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H29" s="7">
         <v>97</v>
@@ -7927,13 +7924,13 @@
         <v>106191</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>59</v>
+        <v>639</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>19</v>
+        <v>640</v>
       </c>
       <c r="M29" s="7">
         <v>194</v>
@@ -7942,13 +7939,13 @@
         <v>209142</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7963,13 +7960,13 @@
         <v>549113</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="H30" s="7">
         <v>553</v>
@@ -7978,13 +7975,13 @@
         <v>597397</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="M30" s="7">
         <v>1099</v>
@@ -7993,13 +7990,13 @@
         <v>1146510</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>647</v>
+        <v>157</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8014,13 +8011,13 @@
         <v>260454</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="H31" s="7">
         <v>274</v>
@@ -8029,13 +8026,13 @@
         <v>300735</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="M31" s="7">
         <v>538</v>
@@ -8044,13 +8041,13 @@
         <v>561189</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8065,13 +8062,13 @@
         <v>14140</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>264</v>
+        <v>662</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="H32" s="7">
         <v>13</v>
@@ -8083,10 +8080,10 @@
         <v>255</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>662</v>
+        <v>415</v>
       </c>
       <c r="M32" s="7">
         <v>27</v>
@@ -8095,13 +8092,13 @@
         <v>29018</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>631</v>
+        <v>293</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8169,13 +8166,13 @@
         <v>33860</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>587</v>
+        <v>666</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>255</v>
+        <v>454</v>
       </c>
       <c r="H34" s="7">
         <v>52</v>
@@ -8184,13 +8181,13 @@
         <v>55929</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>664</v>
+        <v>87</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>337</v>
+        <v>667</v>
       </c>
       <c r="M34" s="7">
         <v>84</v>
@@ -8199,13 +8196,13 @@
         <v>89788</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>665</v>
+        <v>370</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>303</v>
+        <v>595</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8220,13 +8217,13 @@
         <v>341781</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>668</v>
+        <v>25</v>
       </c>
       <c r="H35" s="7">
         <v>332</v>
@@ -8235,13 +8232,13 @@
         <v>349596</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>635</v>
+        <v>671</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="M35" s="7">
         <v>647</v>
@@ -8250,13 +8247,13 @@
         <v>691377</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8271,13 +8268,13 @@
         <v>1863085</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="H36" s="7">
         <v>1832</v>
@@ -8286,13 +8283,13 @@
         <v>1940557</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>679</v>
+        <v>431</v>
       </c>
       <c r="M36" s="7">
         <v>3610</v>
@@ -8301,13 +8298,13 @@
         <v>3803642</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8322,13 +8319,13 @@
         <v>1063912</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H37" s="7">
         <v>1035</v>
@@ -8337,13 +8334,13 @@
         <v>1102710</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="M37" s="7">
         <v>2056</v>
@@ -8352,13 +8349,13 @@
         <v>2166622</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8373,13 +8370,13 @@
         <v>75570</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>693</v>
+        <v>13</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>413</v>
+        <v>694</v>
       </c>
       <c r="H38" s="7">
         <v>76</v>
@@ -8388,13 +8385,13 @@
         <v>83720</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>333</v>
+        <v>452</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="M38" s="7">
         <v>146</v>
@@ -8403,13 +8400,13 @@
         <v>159290</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>696</v>
+        <v>299</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>697</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8465,7 +8462,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
